--- a/Jogos_do_Dia/2023-10-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -682,61 +682,61 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="Z2" t="n">
         <v>0.65</v>
@@ -821,61 +821,61 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.54</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.35</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Z3" t="n">
         <v>1.71</v>
@@ -935,7 +935,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>Wales Welsh Premier League</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -947,89 +947,89 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Charlton Athletic</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>1.13</v>
       </c>
       <c r="H4" t="n">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>41</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>26</v>
       </c>
       <c r="M4" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.13</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.3</v>
+        <v>3.01</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.51</v>
+        <v>4.21</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1090,124 +1090,124 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lincoln City</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.3</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="N5" t="n">
         <v>2.65</v>
       </c>
       <c r="O5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P5" t="n">
         <v>9.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="R5" t="n">
         <v>3.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="T5" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="U5" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
         <v>1.9</v>
       </c>
       <c r="W5" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X5" t="n">
         <v>1.28</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="AA5" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AB5" t="n">
         <v>1.41</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="6">
@@ -1229,130 +1229,130 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wycombe Wanderers</t>
+          <t>Derby County</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cambridge United</t>
+          <t>Northampton Town</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>2.27</v>
       </c>
       <c r="H6" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>5.35</v>
       </c>
       <c r="J6" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
-        <v>4.8</v>
+        <v>5.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="N6" t="n">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="O6" t="n">
         <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="R6" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="S6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AN6" t="n">
         <v>1.95</v>
       </c>
-      <c r="T6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="AO6" t="n">
         <v>1.85</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1368,130 +1368,130 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Lincoln City</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Oxford United</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L7" t="n">
         <v>2.1</v>
       </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.5</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="N7" t="n">
         <v>2.65</v>
       </c>
       <c r="O7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P7" t="n">
         <v>9.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="R7" t="n">
         <v>3.1</v>
       </c>
       <c r="S7" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.85</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.87</v>
       </c>
       <c r="V7" t="n">
         <v>1.9</v>
       </c>
       <c r="W7" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X7" t="n">
         <v>1.28</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AB7" t="n">
         <v>1.41</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Wales Welsh Premier League</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1503,128 +1503,128 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Charlton Athletic</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>3.05</v>
+        <v>1.24</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AD8" t="n">
-        <v>4.25</v>
+        <v>2.45</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="9">
@@ -1646,25 +1646,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Derby County</t>
+          <t>Wycombe Wanderers</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Northampton Town</t>
+          <t>Cambridge United</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.27</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="I9" t="n">
-        <v>5.35</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="K9" t="n">
         <v>3.5</v>
@@ -1673,67 +1673,67 @@
         <v>4.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="N9" t="n">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="O9" t="n">
         <v>1.06</v>
       </c>
       <c r="P9" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="R9" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V9" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W9" t="n">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="X9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.03</v>
+        <v>1.55</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1742,28 +1742,28 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="10">
@@ -1803,13 +1803,13 @@
         <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="M10" t="n">
         <v>1.4</v>
@@ -1830,10 +1830,10 @@
         <v>3.55</v>
       </c>
       <c r="S10" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="U10" t="n">
         <v>1.95</v>
@@ -1866,49 +1866,49 @@
         <v>2.96</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>5.35</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,134 +1920,134 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>3.34</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="T11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.8</v>
       </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AB11" t="n">
         <v>1.75</v>
       </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.72</v>
-      </c>
       <c r="AC11" t="n">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="AD11" t="n">
-        <v>3.36</v>
+        <v>3.04</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>3.7</v>
+        <v>2.44</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="AK11" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.52</v>
+        <v>1.97</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.28</v>
+        <v>1.78</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.88</v>
+        <v>2.49</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.81</v>
+        <v>1.44</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.33</v>
+        <v>4.1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -2059,128 +2059,128 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U12" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="V12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE12" t="n">
         <v>1.42</v>
       </c>
-      <c r="R12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="AF12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN12" t="n">
         <v>1.91</v>
       </c>
-      <c r="V12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>2.49</v>
-      </c>
       <c r="AO12" t="n">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="13">
@@ -2292,10 +2292,10 @@
         <v>1.91</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ13" t="n">
         <v>1.54</v>
@@ -2316,10 +2316,10 @@
         <v>1.58</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-10-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>2.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.82</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>1.32</v>
@@ -718,10 +718,10 @@
         <v>3.68</v>
       </c>
       <c r="S2" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="T2" t="n">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
       <c r="U2" t="n">
         <v>1.63</v>
@@ -830,13 +830,13 @@
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>3.54</v>
+        <v>3.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="M3" t="n">
         <v>1.28</v>
@@ -845,7 +845,7 @@
         <v>3.34</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>9.35</v>
@@ -857,10 +857,10 @@
         <v>4.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="T3" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="U3" t="n">
         <v>1.5</v>
@@ -935,7 +935,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Wales Welsh Premier League</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -947,134 +947,134 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Wycombe Wanderers</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Cambridge United</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.13</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="I4" t="n">
-        <v>41</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>1.75</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>26</v>
+        <v>4.4</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.13</v>
+        <v>1.88</v>
       </c>
       <c r="T4" t="n">
-        <v>5.5</v>
+        <v>1.87</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.67</v>
+        <v>1.67</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.01</v>
+        <v>1.55</v>
       </c>
       <c r="AC4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AH4" t="n">
         <v>1.2</v>
       </c>
-      <c r="AD4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1090,124 +1090,124 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Charlton Athletic</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="N5" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P5" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="R5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="T5" t="n">
-        <v>1.86</v>
+        <v>2.17</v>
       </c>
       <c r="U5" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V5" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W5" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X5" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.72</v>
+        <v>2.45</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>3.08</v>
+        <v>2.16</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.93</v>
+        <v>3.28</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="6">
@@ -1229,130 +1229,130 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Derby County</t>
+          <t>Lincoln City</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Northampton Town</t>
+          <t>Oxford United</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.27</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="I6" t="n">
-        <v>5.35</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="N6" t="n">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="O6" t="n">
         <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="R6" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W6" t="n">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="X6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.86</v>
+        <v>2</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AD6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AP6" t="n">
         <v>2.69</v>
       </c>
-      <c r="AE6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>2.44</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,134 +1364,134 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lincoln City</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>1.62</v>
       </c>
       <c r="K7" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="M7" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="N7" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="R7" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="S7" t="n">
-        <v>2.16</v>
+        <v>1.94</v>
       </c>
       <c r="T7" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="X7" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO7" t="n">
         <v>2</v>
       </c>
-      <c r="AB7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1.72</v>
-      </c>
       <c r="AP7" t="n">
-        <v>2.69</v>
+        <v>2.22</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1507,130 +1507,130 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Charlton Athletic</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="H8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="N8" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="O8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P8" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="T8" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="U8" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W8" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X8" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="Y8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z8" t="n">
         <v>1.67</v>
       </c>
-      <c r="Z8" t="n">
-        <v>2</v>
-      </c>
       <c r="AA8" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.45</v>
+        <v>2.72</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.16</v>
+        <v>3.08</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AK8" t="n">
-        <v>3.28</v>
+        <v>2.93</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.35</v>
+        <v>2.62</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>Wales Welsh Premier League</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,98 +1642,98 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Wycombe Wanderers</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cambridge United</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>1.13</v>
       </c>
       <c r="H9" t="n">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>41</v>
       </c>
       <c r="J9" t="n">
-        <v>1.75</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
-        <v>4.4</v>
+        <v>26</v>
       </c>
       <c r="M9" t="n">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.65</v>
+        <v>5.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.36</v>
+        <v>1.03</v>
       </c>
       <c r="R9" t="n">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="S9" t="n">
-        <v>1.88</v>
+        <v>1.13</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>5.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="V9" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="W9" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>1.28</v>
+        <v>1.02</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.55</v>
+        <v>5.75</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.67</v>
+        <v>2.67</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.55</v>
+        <v>3.01</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.71</v>
+        <v>4.21</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.9</v>
+        <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.72</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1745,22 +1745,22 @@
         <v>1.24</v>
       </c>
       <c r="AK9" t="n">
-        <v>3.48</v>
+        <v>3.7</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="AO9" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.64</v>
@@ -1769,7 +1769,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,128 +1781,128 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Derby County</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>Northampton Town</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="H10" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.35</v>
       </c>
       <c r="J10" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="N10" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="R10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="S10" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="T10" t="n">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AN10" t="n">
         <v>1.95</v>
       </c>
-      <c r="V10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AO10" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="11">
@@ -2072,13 +2072,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.56</v>
@@ -2090,22 +2090,22 @@
         <v>6.1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="S12" t="n">
         <v>1.96</v>
@@ -2114,19 +2114,19 @@
         <v>1.84</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="Z12" t="n">
         <v>1.57</v>
@@ -2144,19 +2144,19 @@
         <v>3.36</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AF12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AJ12" t="n">
         <v>1.3</v>
